--- a/data/AddCustomer.xlsx
+++ b/data/AddCustomer.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liba_Sam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liba_Sam\git\Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="2475"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Customer" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>TestCaseId</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TestCase Description</t>
   </si>
@@ -72,6 +69,21 @@
   </si>
   <si>
     <t>CustomerB</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
   </si>
 </sst>
 </file>
@@ -399,7 +411,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,60 +423,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/AddCustomer.xlsx
+++ b/data/AddCustomer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liba_Sam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liba_Sam\git\Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>TestCaseId</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>TestCase Description</t>
   </si>
@@ -72,6 +69,12 @@
   </si>
   <si>
     <t>CustomerB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
   </si>
 </sst>
 </file>
@@ -398,9 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -411,60 +412,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/AddCustomer.xlsx
+++ b/data/AddCustomer.xlsx
@@ -35,9 +35,6 @@
     <t>CustomerName</t>
   </si>
   <si>
-    <t>TC001_AddCustomer_Valid</t>
-  </si>
-  <si>
     <t>Add a customer by providing valid customerId and customerName</t>
   </si>
   <si>
@@ -47,15 +44,6 @@
     <t>C01</t>
   </si>
   <si>
-    <t>TC002_AddCustomer_CustomerId_Empty</t>
-  </si>
-  <si>
-    <t>TC003_AddCustomer_CustomerName_Empty</t>
-  </si>
-  <si>
-    <t>TC004_AddCustomer_Blank</t>
-  </si>
-  <si>
     <t>Add a customer by providing valid  customerName only</t>
   </si>
   <si>
@@ -75,6 +63,18 @@
   </si>
   <si>
     <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>TC009_AddCustomer_Valid</t>
+  </si>
+  <si>
+    <t>TC010_AddCustomer_CustomerId_Empty</t>
+  </si>
+  <si>
+    <t>TC011_AddCustomer_CustomerName_Empty</t>
+  </si>
+  <si>
+    <t>TC012_AddCustomer_Blank</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -412,7 +414,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -426,58 +428,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
